--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348B35B-F4A8-46B4-B773-7A470599C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58E655-C229-418A-9BF1-111CFF2425F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="152">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -360,111 +360,12 @@
     <t>异教徒</t>
   </si>
   <si>
-    <t>Cazador</t>
-  </si>
-  <si>
-    <t>Guardia de Redstone Keep</t>
-  </si>
-  <si>
-    <t>Minero</t>
-  </si>
-  <si>
-    <t>Líder Ghoul Ifrit</t>
-  </si>
-  <si>
-    <t>Consejero</t>
-  </si>
-  <si>
-    <t>Oficial de la Guardia</t>
-  </si>
-  <si>
-    <t>Transeúnte</t>
-  </si>
-  <si>
-    <t>Enviado de Akhal</t>
-  </si>
-  <si>
-    <t>Nasir Enviado</t>
-  </si>
-  <si>
-    <t>Enviado de la tribu</t>
-  </si>
-  <si>
-    <t>Guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Valiente guerrero</t>
-  </si>
-  <si>
-    <t>Jefe Oryx</t>
-  </si>
-  <si>
-    <t>Trader adinerado</t>
-  </si>
-  <si>
-    <t>Merodeador</t>
-  </si>
-  <si>
-    <t>Merodeador tímido</t>
-  </si>
-  <si>
-    <t>Madre ansiosa</t>
-  </si>
-  <si>
     <t>Bandido Arrogante</t>
   </si>
   <si>
-    <t>Comerciante viajero</t>
-  </si>
-  <si>
-    <t>Consejero Wafa</t>
-  </si>
-  <si>
-    <t>Mago misterioso</t>
-  </si>
-  <si>
-    <t>Inventor de engranajes</t>
-  </si>
-  <si>
     <t>Explorador</t>
   </si>
   <si>
-    <t>Aldeana Fleur</t>
-  </si>
-  <si>
-    <t>Chica extraña</t>
-  </si>
-  <si>
-    <t>Locutor de arena</t>
-  </si>
-  <si>
-    <t>Hombre viejo</t>
-  </si>
-  <si>
-    <t>Mujer anciana</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>Guardia</t>
-  </si>
-  <si>
-    <t>Dragón</t>
-  </si>
-  <si>
-    <t>Dragón de Sable</t>
-  </si>
-  <si>
-    <t>Guardia Real</t>
-  </si>
-  <si>
-    <t>Anciano del palacio</t>
-  </si>
-  <si>
-    <t>Viejo Nasir Rey</t>
-  </si>
-  <si>
     <t>Mago</t>
   </si>
   <si>
@@ -474,23 +375,125 @@
     <t>Soldado Akhal</t>
   </si>
   <si>
-    <t>Hermano del desierto</t>
-  </si>
-  <si>
-    <t>Guerrilla alpina</t>
-  </si>
-  <si>
-    <t>Pagan</t>
-  </si>
-  <si>
-    <t>Miembro del Wildfire</t>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Guarda de Redstone Keep</t>
+  </si>
+  <si>
+    <t>Mineiro</t>
+  </si>
+  <si>
+    <t>Líder dos Ghouls Ifrit</t>
+  </si>
+  <si>
+    <t>Conselheiro</t>
+  </si>
+  <si>
+    <t>Oficial da Guarda</t>
+  </si>
+  <si>
+    <t>Pessoa Passante</t>
+  </si>
+  <si>
+    <t>Emissário de Akhal</t>
+  </si>
+  <si>
+    <t>Emissário de Nasir</t>
+  </si>
+  <si>
+    <t>Emissário da Tribo</t>
+  </si>
+  <si>
+    <t>Guerreiro Covarde</t>
+  </si>
+  <si>
+    <t>Guerreiro Corajoso</t>
+  </si>
+  <si>
+    <t>Chefe Oryx</t>
+  </si>
+  <si>
+    <t>Comerciante Rico</t>
+  </si>
+  <si>
+    <t>Maraudador</t>
+  </si>
+  <si>
+    <t>Maraudador Tímido</t>
+  </si>
+  <si>
+    <t>Mãe Ansiosa</t>
+  </si>
+  <si>
+    <t>Mercador Viajante</t>
+  </si>
+  <si>
+    <t>Conselheiro Wafa</t>
+  </si>
+  <si>
+    <t>Mago Misterioso</t>
+  </si>
+  <si>
+    <t>Consertador de Equipamento</t>
+  </si>
+  <si>
+    <t>Morador de Fleur</t>
+  </si>
+  <si>
+    <t>Garota Estranha</t>
+  </si>
+  <si>
+    <t>Locutor da Arena</t>
+  </si>
+  <si>
+    <t>Homem Velho</t>
+  </si>
+  <si>
+    <t>Mulher Velha</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>Dragão</t>
+  </si>
+  <si>
+    <t>Dragão Sable</t>
+  </si>
+  <si>
+    <t>Guarda Real</t>
+  </si>
+  <si>
+    <t>Ancião do Palácio</t>
+  </si>
+  <si>
+    <t>Velho Rei Nasir</t>
+  </si>
+  <si>
+    <t>Irmão do Deserto</t>
+  </si>
+  <si>
+    <t>Membro do Wildfire</t>
+  </si>
+  <si>
+    <t>Guerrilheiro Alpino</t>
+  </si>
+  <si>
+    <t>Herege</t>
+  </si>
+  <si>
+    <t>显示名称_DisplayName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -499,16 +502,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,16 +528,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08080"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -534,26 +551,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -869,167 +907,170 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1037,220 +1078,220 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="81" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
@@ -1258,19 +1299,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="81" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G23" t="s">
@@ -1278,36 +1319,36 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="81" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G25" t="s">
@@ -1315,19 +1356,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="81" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G26" t="s">
@@ -1335,19 +1376,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G27" t="s">
@@ -1355,430 +1396,430 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="27" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="27" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="27" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="27" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="27" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="27" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="27" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30">
-      <c r="A52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58E655-C229-418A-9BF1-111CFF2425F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348B35B-F4A8-46B4-B773-7A470599C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="151">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -360,12 +360,111 @@
     <t>异教徒</t>
   </si>
   <si>
+    <t>Cazador</t>
+  </si>
+  <si>
+    <t>Guardia de Redstone Keep</t>
+  </si>
+  <si>
+    <t>Minero</t>
+  </si>
+  <si>
+    <t>Líder Ghoul Ifrit</t>
+  </si>
+  <si>
+    <t>Consejero</t>
+  </si>
+  <si>
+    <t>Oficial de la Guardia</t>
+  </si>
+  <si>
+    <t>Transeúnte</t>
+  </si>
+  <si>
+    <t>Enviado de Akhal</t>
+  </si>
+  <si>
+    <t>Nasir Enviado</t>
+  </si>
+  <si>
+    <t>Enviado de la tribu</t>
+  </si>
+  <si>
+    <t>Guerrero cobarde</t>
+  </si>
+  <si>
+    <t>Valiente guerrero</t>
+  </si>
+  <si>
+    <t>Jefe Oryx</t>
+  </si>
+  <si>
+    <t>Trader adinerado</t>
+  </si>
+  <si>
+    <t>Merodeador</t>
+  </si>
+  <si>
+    <t>Merodeador tímido</t>
+  </si>
+  <si>
+    <t>Madre ansiosa</t>
+  </si>
+  <si>
     <t>Bandido Arrogante</t>
   </si>
   <si>
+    <t>Comerciante viajero</t>
+  </si>
+  <si>
+    <t>Consejero Wafa</t>
+  </si>
+  <si>
+    <t>Mago misterioso</t>
+  </si>
+  <si>
+    <t>Inventor de engranajes</t>
+  </si>
+  <si>
     <t>Explorador</t>
   </si>
   <si>
+    <t>Aldeana Fleur</t>
+  </si>
+  <si>
+    <t>Chica extraña</t>
+  </si>
+  <si>
+    <t>Locutor de arena</t>
+  </si>
+  <si>
+    <t>Hombre viejo</t>
+  </si>
+  <si>
+    <t>Mujer anciana</t>
+  </si>
+  <si>
+    <t>Herrero</t>
+  </si>
+  <si>
+    <t>Guardia</t>
+  </si>
+  <si>
+    <t>Dragón</t>
+  </si>
+  <si>
+    <t>Dragón de Sable</t>
+  </si>
+  <si>
+    <t>Guardia Real</t>
+  </si>
+  <si>
+    <t>Anciano del palacio</t>
+  </si>
+  <si>
+    <t>Viejo Nasir Rey</t>
+  </si>
+  <si>
     <t>Mago</t>
   </si>
   <si>
@@ -375,125 +474,23 @@
     <t>Soldado Akhal</t>
   </si>
   <si>
-    <t>Caçador</t>
-  </si>
-  <si>
-    <t>Guarda de Redstone Keep</t>
-  </si>
-  <si>
-    <t>Mineiro</t>
-  </si>
-  <si>
-    <t>Líder dos Ghouls Ifrit</t>
-  </si>
-  <si>
-    <t>Conselheiro</t>
-  </si>
-  <si>
-    <t>Oficial da Guarda</t>
-  </si>
-  <si>
-    <t>Pessoa Passante</t>
-  </si>
-  <si>
-    <t>Emissário de Akhal</t>
-  </si>
-  <si>
-    <t>Emissário de Nasir</t>
-  </si>
-  <si>
-    <t>Emissário da Tribo</t>
-  </si>
-  <si>
-    <t>Guerreiro Covarde</t>
-  </si>
-  <si>
-    <t>Guerreiro Corajoso</t>
-  </si>
-  <si>
-    <t>Chefe Oryx</t>
-  </si>
-  <si>
-    <t>Comerciante Rico</t>
-  </si>
-  <si>
-    <t>Maraudador</t>
-  </si>
-  <si>
-    <t>Maraudador Tímido</t>
-  </si>
-  <si>
-    <t>Mãe Ansiosa</t>
-  </si>
-  <si>
-    <t>Mercador Viajante</t>
-  </si>
-  <si>
-    <t>Conselheiro Wafa</t>
-  </si>
-  <si>
-    <t>Mago Misterioso</t>
-  </si>
-  <si>
-    <t>Consertador de Equipamento</t>
-  </si>
-  <si>
-    <t>Morador de Fleur</t>
-  </si>
-  <si>
-    <t>Garota Estranha</t>
-  </si>
-  <si>
-    <t>Locutor da Arena</t>
-  </si>
-  <si>
-    <t>Homem Velho</t>
-  </si>
-  <si>
-    <t>Mulher Velha</t>
-  </si>
-  <si>
-    <t>Ferreiro</t>
-  </si>
-  <si>
-    <t>Guarda</t>
-  </si>
-  <si>
-    <t>Dragão</t>
-  </si>
-  <si>
-    <t>Dragão Sable</t>
-  </si>
-  <si>
-    <t>Guarda Real</t>
-  </si>
-  <si>
-    <t>Ancião do Palácio</t>
-  </si>
-  <si>
-    <t>Velho Rei Nasir</t>
-  </si>
-  <si>
-    <t>Irmão do Deserto</t>
-  </si>
-  <si>
-    <t>Membro do Wildfire</t>
-  </si>
-  <si>
-    <t>Guerrilheiro Alpino</t>
-  </si>
-  <si>
-    <t>Herege</t>
-  </si>
-  <si>
-    <t>显示名称_DisplayName</t>
+    <t>Hermano del desierto</t>
+  </si>
+  <si>
+    <t>Guerrilla alpina</t>
+  </si>
+  <si>
+    <t>Pagan</t>
+  </si>
+  <si>
+    <t>Miembro del Wildfire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -502,24 +499,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,22 +517,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor rgb="FFF08080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -551,47 +534,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,7 +570,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,170 +869,167 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="45" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1078,220 +1037,220 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="81" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="27" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="81" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
@@ -1299,19 +1258,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="81" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G23" t="s">
@@ -1319,36 +1278,36 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="81" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G25" t="s">
@@ -1356,19 +1315,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="81" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G26" t="s">
@@ -1376,19 +1335,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G27" t="s">
@@ -1396,430 +1355,430 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="27" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="27" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="27" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="27" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="27" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="D49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="27" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="27" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30">
+      <c r="A52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348B35B-F4A8-46B4-B773-7A470599C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54026AFE-F657-440F-96C8-15D9FB4E2296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="2130" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -360,130 +360,130 @@
     <t>异教徒</t>
   </si>
   <si>
-    <t>Cazador</t>
-  </si>
-  <si>
-    <t>Guardia de Redstone Keep</t>
-  </si>
-  <si>
-    <t>Minero</t>
-  </si>
-  <si>
     <t>Líder Ghoul Ifrit</t>
   </si>
   <si>
-    <t>Consejero</t>
-  </si>
-  <si>
-    <t>Oficial de la Guardia</t>
-  </si>
-  <si>
-    <t>Transeúnte</t>
-  </si>
-  <si>
     <t>Enviado de Akhal</t>
   </si>
   <si>
-    <t>Nasir Enviado</t>
-  </si>
-  <si>
-    <t>Enviado de la tribu</t>
-  </si>
-  <si>
-    <t>Guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Valiente guerrero</t>
-  </si>
-  <si>
-    <t>Jefe Oryx</t>
-  </si>
-  <si>
-    <t>Trader adinerado</t>
-  </si>
-  <si>
-    <t>Merodeador</t>
-  </si>
-  <si>
-    <t>Merodeador tímido</t>
-  </si>
-  <si>
-    <t>Madre ansiosa</t>
-  </si>
-  <si>
     <t>Bandido Arrogante</t>
   </si>
   <si>
-    <t>Comerciante viajero</t>
-  </si>
-  <si>
-    <t>Consejero Wafa</t>
-  </si>
-  <si>
-    <t>Mago misterioso</t>
-  </si>
-  <si>
-    <t>Inventor de engranajes</t>
-  </si>
-  <si>
     <t>Explorador</t>
   </si>
   <si>
-    <t>Aldeana Fleur</t>
-  </si>
-  <si>
-    <t>Chica extraña</t>
-  </si>
-  <si>
-    <t>Locutor de arena</t>
-  </si>
-  <si>
-    <t>Hombre viejo</t>
-  </si>
-  <si>
-    <t>Mujer anciana</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>Guardia</t>
-  </si>
-  <si>
-    <t>Dragón</t>
-  </si>
-  <si>
-    <t>Dragón de Sable</t>
-  </si>
-  <si>
-    <t>Guardia Real</t>
-  </si>
-  <si>
-    <t>Anciano del palacio</t>
-  </si>
-  <si>
-    <t>Viejo Nasir Rey</t>
-  </si>
-  <si>
-    <t>Mago</t>
-  </si>
-  <si>
     <t>Soldado Nasir</t>
   </si>
   <si>
     <t>Soldado Akhal</t>
   </si>
   <si>
-    <t>Hermano del desierto</t>
-  </si>
-  <si>
-    <t>Guerrilla alpina</t>
-  </si>
-  <si>
-    <t>Pagan</t>
-  </si>
-  <si>
-    <t>Miembro del Wildfire</t>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Redstone mantém guarda</t>
+  </si>
+  <si>
+    <t>Mineiro</t>
+  </si>
+  <si>
+    <t>Conselheiro</t>
+  </si>
+  <si>
+    <t>Oficial de guarda</t>
+  </si>
+  <si>
+    <t>Transeunte</t>
+  </si>
+  <si>
+    <t>Nasir enviado</t>
+  </si>
+  <si>
+    <t>Enviado da Tribo</t>
+  </si>
+  <si>
+    <t>guerreiro covarde</t>
+  </si>
+  <si>
+    <t>Bravo guerreiro</t>
+  </si>
+  <si>
+    <t>Chefe Órix</t>
+  </si>
+  <si>
+    <t>Comerciante rico</t>
+  </si>
+  <si>
+    <t>Predador</t>
+  </si>
+  <si>
+    <t>Ladrão tímido</t>
+  </si>
+  <si>
+    <t>Mãe ansiosa</t>
+  </si>
+  <si>
+    <t>comerciante viajante</t>
+  </si>
+  <si>
+    <t>Conselheiro Wafa</t>
+  </si>
+  <si>
+    <t>Feiticeiro misterioso</t>
+  </si>
+  <si>
+    <t>inventor de engrenagens</t>
+  </si>
+  <si>
+    <t>Aldeão Fleur</t>
+  </si>
+  <si>
+    <t>garota estranha</t>
+  </si>
+  <si>
+    <t>locutor de areia</t>
+  </si>
+  <si>
+    <t>Homem velho</t>
+  </si>
+  <si>
+    <t>Idosa</t>
+  </si>
+  <si>
+    <t>ferreiro</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>Dragão</t>
+  </si>
+  <si>
+    <t>Dragão Sabre</t>
+  </si>
+  <si>
+    <t>guarda Real</t>
+  </si>
+  <si>
+    <t>ancião do palácio</t>
+  </si>
+  <si>
+    <t>Velho Rei Nasir</t>
+  </si>
+  <si>
+    <t>Mágico</t>
+  </si>
+  <si>
+    <t>Irmão do deserto</t>
+  </si>
+  <si>
+    <t>Membro do incêndio florestal</t>
+  </si>
+  <si>
+    <t>Guerrilha alpina</t>
+  </si>
+  <si>
+    <t>Eles pagaram</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -869,10 +869,13 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -905,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -922,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -939,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -956,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -973,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -990,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -1007,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -1024,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -1041,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -1058,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -1075,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -1092,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -1109,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -1126,7 +1129,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -1143,7 +1146,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -1160,7 +1163,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -1177,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -1194,7 +1197,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -1211,7 +1214,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
@@ -1228,7 +1231,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
@@ -1245,7 +1248,7 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
@@ -1265,7 +1268,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>6</v>
@@ -1285,7 +1288,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>6</v>
@@ -1302,7 +1305,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>6</v>
@@ -1322,7 +1325,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -1342,7 +1345,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -1362,7 +1365,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -1379,7 +1382,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
@@ -1396,7 +1399,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>6</v>
@@ -1413,7 +1416,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>6</v>
@@ -1430,7 +1433,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>67</v>
@@ -1450,7 +1453,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>6</v>
@@ -1467,7 +1470,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
@@ -1484,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
@@ -1501,7 +1504,7 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>6</v>
@@ -1535,7 +1538,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>6</v>
@@ -1569,7 +1572,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1586,7 +1589,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1603,7 +1606,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -1620,7 +1623,7 @@
         <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
@@ -1637,7 +1640,7 @@
         <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
@@ -1654,7 +1657,7 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1671,7 +1674,7 @@
         <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1688,7 +1691,7 @@
         <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1705,7 +1708,7 @@
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1739,7 +1742,7 @@
         <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
@@ -1756,7 +1759,7 @@
         <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
@@ -1773,7 +1776,7 @@
         <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD303EF-7FF5-4AA6-8F90-B2B97B75FA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595E2F0-03FF-4F76-95BF-FB59088701A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="420" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -157,12 +157,18 @@
     <t>IdentityStr:[@str=npc_idstr_scroll]卷轴商人</t>
   </si>
   <si>
+    <t>IdentityStr:[@str=npc_idstr_scroll]Scroll Merchant</t>
+  </si>
+  <si>
     <t>旅行药剂商人</t>
   </si>
   <si>
     <t>IdentityStr:[@str=npc_idstr_drug]药剂商人</t>
   </si>
   <si>
+    <t>IdentityStr:[@str=npc_idstr_drug]Potion Merchant</t>
+  </si>
+  <si>
     <t>建设管家</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>IdentityStr:[@str=npc_idstr_smith]铁匠</t>
   </si>
   <si>
+    <t>IdentityStr:[@str=npc_idstr_smith]Blacksmith</t>
+  </si>
+  <si>
     <t>任务寻找雕像</t>
   </si>
   <si>
@@ -244,6 +253,9 @@
     <t>托也普</t>
   </si>
   <si>
+    <t>Tabassum</t>
+  </si>
+  <si>
     <t>提提罗部落守卫</t>
   </si>
   <si>
@@ -337,13 +349,13 @@
     <t>Caçador</t>
   </si>
   <si>
-    <t>Guarda da Fortaleza da Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Mineiro</t>
-  </si>
-  <si>
-    <t>Líder dos Ghouls Ifrit</t>
+    <t>Guarda da Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Minerador</t>
+  </si>
+  <si>
+    <t>Líder dos Carniçais Ifrit</t>
   </si>
   <si>
     <t>Conselheiro</t>
@@ -355,15 +367,15 @@
     <t>Transeunte</t>
   </si>
   <si>
+    <t>Emissário de Akhal</t>
+  </si>
+  <si>
+    <t>Emissário de Nasir</t>
+  </si>
+  <si>
     <t>Emissário da Tribo</t>
   </si>
   <si>
-    <t>Emissário de Nasir</t>
-  </si>
-  <si>
-    <t>Emissário de Akhal</t>
-  </si>
-  <si>
     <t>Guerreiro Covarde</t>
   </si>
   <si>
@@ -388,7 +400,7 @@
     <t>Bandido Arrogante</t>
   </si>
   <si>
-    <t>Mercador Viajante</t>
+    <t>Comerciante Viajante</t>
   </si>
   <si>
     <t>Conselheiro Wafa</t>
@@ -397,13 +409,13 @@
     <t>Mago Misterioso</t>
   </si>
   <si>
-    <t>Ferreiro de Equipamentos</t>
+    <t>Reparador de Equipamento</t>
   </si>
   <si>
     <t>Explorador</t>
   </si>
   <si>
-    <t>Aldeão de Fleur</t>
+    <t>Morador de Fleur</t>
   </si>
   <si>
     <t>Garota Estranha</t>
@@ -412,10 +424,13 @@
     <t>Locutor da Arena</t>
   </si>
   <si>
-    <t>Velho</t>
-  </si>
-  <si>
-    <t>Velha</t>
+    <t>默认:Eu realmente quero sentir a queima daquelas pimentas Ember novamente…</t>
+  </si>
+  <si>
+    <t>Idoso</t>
+  </si>
+  <si>
+    <t>Idosa</t>
   </si>
   <si>
     <t>Ferreiro</t>
@@ -436,40 +451,28 @@
     <t>Ancião do Palácio</t>
   </si>
   <si>
-    <t>Antigo Rei Nasir</t>
+    <t>Velho Rei de Nasir</t>
   </si>
   <si>
     <t>Mago</t>
   </si>
   <si>
-    <t>Soldado Nasir</t>
-  </si>
-  <si>
-    <t>Soldado Akhal</t>
+    <t>Soldado de Nasir</t>
+  </si>
+  <si>
+    <t>Soldado de Akhal</t>
   </si>
   <si>
     <t>Irmão do Deserto</t>
   </si>
   <si>
-    <t>Membro dos Píromantes</t>
-  </si>
-  <si>
-    <t>Guerrilheiro Alpino</t>
-  </si>
-  <si>
-    <t>Herege</t>
-  </si>
-  <si>
-    <t>默认:Eu realmente quero sentir o ardor dessas pimentas Ember novamente...</t>
-  </si>
-  <si>
-    <t>IdentityStr:[@str=npc_idstr_scroll]Mercador de Pergaminhos</t>
-  </si>
-  <si>
-    <t>IdentityStr:[@str=npc_idstr_drug]Comerciante de Poções</t>
-  </si>
-  <si>
-    <t>IdentityStr:[@str=npc_idstr_smith]Ferreiro</t>
+    <t>Membro do Fogo Selvagem</t>
+  </si>
+  <si>
+    <t>Guerilheiro Alpino</t>
+  </si>
+  <si>
+    <t>Pagão</t>
   </si>
 </sst>
 </file>
@@ -975,18 +978,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1020,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="2"/>
@@ -1033,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="2"/>
@@ -1046,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="2"/>
@@ -1059,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="2"/>
@@ -1072,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="2"/>
@@ -1085,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="2"/>
@@ -1098,7 +1100,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="2"/>
@@ -1111,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="2"/>
@@ -1124,7 +1126,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="2"/>
@@ -1137,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="2"/>
@@ -1150,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="2"/>
@@ -1163,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="2"/>
@@ -1176,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" s="2"/>
@@ -1189,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="2"/>
@@ -1202,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="2"/>
@@ -1215,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="2"/>
@@ -1228,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="2"/>
@@ -1241,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3"/>
       <c r="F19" s="2"/>
@@ -1254,7 +1256,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="2"/>
@@ -1267,7 +1269,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="2"/>
@@ -1280,427 +1282,427 @@
         <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="81">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="81">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="81">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="67.5">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="27">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="27">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D31" s="3"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="67.5">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="27">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="27">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="40.5">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="27">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="27">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="27">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="27">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="27">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="27">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="27">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="27">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="27">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="27">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="27">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="27">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="2"/>
